--- a/ExcelToDatabase/wwwroot/Uploads/Deduction_Docs/HistPayListing1 Pension and SSC.xlsx
+++ b/ExcelToDatabase/wwwroot/Uploads/Deduction_Docs/HistPayListing1 Pension and SSC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSSQL\Documents\Projects\Omusati RC Developments\Raw Earnings &amp; Deductions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E638D5-6A7B-4801-83CA-573CD807B862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AF3B4A-D225-4DBD-8273-058846A816E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1565,12 +1565,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1876,11 +1875,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="A155" sqref="A155:XFD155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6825,33 +6824,6 @@
         <v>2550.83</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="4">
-        <f t="shared" ref="F155:J155" si="0">SUM(F2:F154)</f>
-        <v>2650212.5799999991</v>
-      </c>
-      <c r="G155" s="4">
-        <f t="shared" si="0"/>
-        <v>10848.500000000004</v>
-      </c>
-      <c r="H155" s="4">
-        <f t="shared" si="0"/>
-        <v>193146.24999999985</v>
-      </c>
-      <c r="I155" s="4">
-        <f t="shared" si="0"/>
-        <v>10848.500000000004</v>
-      </c>
-      <c r="J155" s="4">
-        <f t="shared" si="0"/>
-        <v>446270.01000000013</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
